--- a/1 NHI impact/output/sfig_04_pta_cohort.xlsx
+++ b/1 NHI impact/output/sfig_04_pta_cohort.xlsx
@@ -1430,7 +1430,7 @@
         <v>1</v>
       </c>
       <c r="C23">
-        <v>91.67054138215906</v>
+        <v>91.67054138215907</v>
       </c>
       <c r="D23">
         <v>7</v>
@@ -1439,7 +1439,7 @@
         <v>16.68104247068734</v>
       </c>
       <c r="F23">
-        <v>50.85350087118165</v>
+        <v>50.85350087118167</v>
       </c>
       <c r="G23">
         <v>132.4875818931365</v>
@@ -4508,7 +4508,7 @@
         <v>7</v>
       </c>
       <c r="E87">
-        <v>51.26358604254605</v>
+        <v>51.26358604254603</v>
       </c>
       <c r="F87">
         <v>279.7955525208519</v>
@@ -4598,19 +4598,19 @@
         <v>3</v>
       </c>
       <c r="C89">
-        <v>377.5568838341905</v>
+        <v>377.5568838341904</v>
       </c>
       <c r="D89">
         <v>7</v>
       </c>
       <c r="E89">
-        <v>55.18697461462404</v>
+        <v>55.18697461462403</v>
       </c>
       <c r="F89">
         <v>242.5192216208304</v>
       </c>
       <c r="G89">
-        <v>512.5945460475506</v>
+        <v>512.5945460475505</v>
       </c>
       <c r="H89" t="inlineStr">
         <is>
@@ -6092,7 +6092,7 @@
         <v>24</v>
       </c>
       <c r="E120">
-        <v>20.75289044475653</v>
+        <v>20.75289044475652</v>
       </c>
       <c r="F120">
         <v>161.9225629410248</v>
@@ -6716,7 +6716,7 @@
         <v>15</v>
       </c>
       <c r="E133">
-        <v>157.5061227411927</v>
+        <v>157.5061227411926</v>
       </c>
       <c r="F133">
         <v>785.272516727098</v>
@@ -7628,10 +7628,10 @@
         <v>7</v>
       </c>
       <c r="E152">
-        <v>285.3124297258864</v>
+        <v>285.3124297258863</v>
       </c>
       <c r="F152">
-        <v>696.1029777281386</v>
+        <v>696.1029777281387</v>
       </c>
       <c r="G152">
         <v>2092.371708878613</v>
@@ -8204,13 +8204,13 @@
         <v>37</v>
       </c>
       <c r="E164">
-        <v>115.9808315694643</v>
+        <v>115.9808315694644</v>
       </c>
       <c r="F164">
         <v>827.8535872134881</v>
       </c>
       <c r="G164">
-        <v>1298.293644682997</v>
+        <v>1298.293644682998</v>
       </c>
       <c r="H164" t="inlineStr">
         <is>
@@ -8399,7 +8399,7 @@
         <v>108.4280950278085</v>
       </c>
       <c r="F168">
-        <v>911.2015064650541</v>
+        <v>911.201506465054</v>
       </c>
       <c r="G168">
         <v>1351.006244592327</v>
@@ -9062,7 +9062,7 @@
         <v>-3</v>
       </c>
       <c r="C182">
-        <v>757.6223632109878</v>
+        <v>757.6223632109877</v>
       </c>
       <c r="D182">
         <v>24</v>
@@ -9071,10 +9071,10 @@
         <v>113.8748995542338</v>
       </c>
       <c r="F182">
-        <v>522.0541856124174</v>
+        <v>522.0541856124173</v>
       </c>
       <c r="G182">
-        <v>993.1905408095582</v>
+        <v>993.1905408095581</v>
       </c>
       <c r="H182" t="inlineStr">
         <is>
@@ -9932,13 +9932,13 @@
         <v>15</v>
       </c>
       <c r="E200">
-        <v>632.5942909214687</v>
+        <v>632.5942909214688</v>
       </c>
       <c r="F200">
-        <v>1888.340933047124</v>
+        <v>1888.340933047123</v>
       </c>
       <c r="G200">
-        <v>4601.90056108946</v>
+        <v>4601.900561089461</v>
       </c>
       <c r="H200" t="inlineStr">
         <is>
@@ -12716,7 +12716,7 @@
         <v>15</v>
       </c>
       <c r="E258">
-        <v>0.3435326782145934</v>
+        <v>0.3435326782145935</v>
       </c>
       <c r="F258">
         <v>1.966469445048868</v>
@@ -12854,7 +12854,7 @@
         <v>0</v>
       </c>
       <c r="C261">
-        <v>2.746556299819111</v>
+        <v>2.746556299819112</v>
       </c>
       <c r="D261">
         <v>15</v>
@@ -12950,7 +12950,7 @@
         <v>2</v>
       </c>
       <c r="C263">
-        <v>3.021798084846802</v>
+        <v>3.021798084846803</v>
       </c>
       <c r="D263">
         <v>15</v>
@@ -12959,7 +12959,7 @@
         <v>0.351296990492231</v>
       </c>
       <c r="F263">
-        <v>2.268340976133478</v>
+        <v>2.268340976133479</v>
       </c>
       <c r="G263">
         <v>3.775255193560127</v>
@@ -13004,7 +13004,7 @@
         <v>15</v>
       </c>
       <c r="E264">
-        <v>0.3111349817557242</v>
+        <v>0.3111349817557241</v>
       </c>
       <c r="F264">
         <v>2.06818668591191</v>
@@ -13292,7 +13292,7 @@
         <v>107</v>
       </c>
       <c r="E270">
-        <v>0.08939455988652177</v>
+        <v>0.08939455988652178</v>
       </c>
       <c r="F270">
         <v>2.362987219361977</v>
@@ -13535,10 +13535,10 @@
         <v>0.2457146271470018</v>
       </c>
       <c r="F275">
-        <v>1.766274003952099</v>
+        <v>1.7662740039521</v>
       </c>
       <c r="G275">
-        <v>2.968758070283432</v>
+        <v>2.968758070283431</v>
       </c>
       <c r="H275" t="inlineStr">
         <is>
@@ -13730,7 +13730,7 @@
         <v>1.729067657290803</v>
       </c>
       <c r="G279">
-        <v>2.818514958774164</v>
+        <v>2.818514958774165</v>
       </c>
       <c r="H279" t="inlineStr">
         <is>
@@ -14060,7 +14060,7 @@
         <v>107</v>
       </c>
       <c r="E286">
-        <v>0.08939455988652177</v>
+        <v>0.08939455988652178</v>
       </c>
       <c r="F286">
         <v>2.362987219361977</v>
@@ -14396,7 +14396,7 @@
         <v>37</v>
       </c>
       <c r="E293">
-        <v>0.1117364420453465</v>
+        <v>0.1117364420453466</v>
       </c>
       <c r="F293">
         <v>1.999257439209899</v>
@@ -15212,7 +15212,7 @@
         <v>24</v>
       </c>
       <c r="E310">
-        <v>0.2213462957731901</v>
+        <v>0.2213462957731902</v>
       </c>
       <c r="F310">
         <v>2.472263989406926</v>
@@ -15314,7 +15314,7 @@
         <v>2.217872272696837</v>
       </c>
       <c r="G312">
-        <v>3.153640224495302</v>
+        <v>3.153640224495303</v>
       </c>
       <c r="H312" t="inlineStr">
         <is>
@@ -16778,10 +16778,10 @@
         <v>0.02089458876401025</v>
       </c>
       <c r="F343">
-        <v>0.06502135447989676</v>
+        <v>0.06502135447989678</v>
       </c>
       <c r="G343">
-        <v>0.1672757882228112</v>
+        <v>0.1672757882228111</v>
       </c>
       <c r="H343" t="inlineStr">
         <is>
